--- a/charge_passive_model.xlsx
+++ b/charge_passive_model.xlsx
@@ -756,568 +756,568 @@
                   <c:v>-70.079254350650842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-70.048472669067195</c:v>
+                  <c:v>-70.127153947332417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-70.00928831131074</c:v>
+                  <c:v>-70.134610057209201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-69.960575496597613</c:v>
+                  <c:v>-70.092286601622035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-69.901449533590025</c:v>
+                  <c:v>-69.991095722882193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-69.831370820035104</c:v>
+                  <c:v>-69.822783846154778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-69.750221858066752</c:v>
+                  <c:v>-69.580556539890551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-69.658341917892699</c:v>
+                  <c:v>-69.259673813329101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-69.5565104001777</c:v>
+                  <c:v>-68.857941141229787</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-69.445879485908875</c:v>
+                  <c:v>-68.376028871063241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-69.327867287163031</c:v>
+                  <c:v>-67.817574137251839</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-69.204031715501785</c:v>
+                  <c:v>-67.189051700819007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-69.075950028749176</c:v>
+                  <c:v>-66.499436684390787</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-68.945127776175426</c:v>
+                  <c:v>-65.759714612989754</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-68.812953482264916</c:v>
+                  <c:v>-64.98231457703541</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-68.680703523373708</c:v>
+                  <c:v>-64.180544579547302</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-68.549588327796371</c:v>
+                  <c:v>-63.368093567230453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-68.420819919439509</c:v>
+                  <c:v>-62.558636499414128</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-68.295675068873379</c:v>
+                  <c:v>-61.765545069184768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-68.175529566434761</c:v>
+                  <c:v>-61.001676799749774</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-68.061847033140438</c:v>
+                  <c:v>-60.279197297244011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-67.956117980445057</c:v>
+                  <c:v>-59.609388837628487</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-67.859758072896369</c:v>
+                  <c:v>-59.002412691968736</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-67.773985161415851</c:v>
+                  <c:v>-58.467017601991365</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-67.699699983602613</c:v>
+                  <c:v>-58.010214738504899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-67.637394441571971</c:v>
+                  <c:v>-57.636962092249291</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-67.587104820800405</c:v>
+                  <c:v>-57.349912384502694</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-67.548417350017132</c:v>
+                  <c:v>-57.149275684061045</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-67.520522899931763</c:v>
+                  <c:v>-57.0328323925443</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-67.50230894344061</c:v>
+                  <c:v>-56.99610867171576</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-67.492471847288883</c:v>
+                  <c:v>-57.032700830144144</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-67.489631657160174</c:v>
+                  <c:v>-57.134713489322763</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-67.492434205613776</c:v>
+                  <c:v>-57.293262629454617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-67.499630322365945</c:v>
+                  <c:v>-57.498990551230925</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-67.510127628471665</c:v>
+                  <c:v>-57.742544669189712</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-67.523015517872167</c:v>
+                  <c:v>-58.014983419918273</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-67.53756761216448</c:v>
+                  <c:v>-58.308087167458872</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-67.553227907917176</c:v>
+                  <c:v>-58.614566668870289</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-67.569587174502288</c:v>
+                  <c:v>-58.928174031992491</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-67.58635534383447</c:v>
+                  <c:v>-59.243729814584682</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-67.603334193971733</c:v>
+                  <c:v>-59.557084661668732</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-67.620393040317339</c:v>
+                  <c:v>-59.865035114087959</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-67.637448743085599</c:v>
+                  <c:v>-60.165211843837476</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-67.654450288402543</c:v>
+                  <c:v>-60.455955603451315</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-67.671367538500846</c:v>
+                  <c:v>-60.736192536279667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-67.688183421593394</c:v>
+                  <c:v>-61.00531687274173</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-67.704888751647758</c:v>
+                  <c:v>-61.26308586623427</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-67.721478936086726</c:v>
+                  <c:v>-61.509529304193933</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-67.737951966323877</c:v>
+                  <c:v>-61.744874099336435</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-67.754307237861155</c:v>
+                  <c:v>-61.969483254437399</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-67.770544882873921</c:v>
+                  <c:v>-62.183807783517125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-67.786665406116853</c:v>
+                  <c:v>-62.388349834795861</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-67.80266949319396</c:v>
+                  <c:v>-62.583635179998709</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-67.818557913028457</c:v>
+                  <c:v>-62.77019331600993</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-67.834331469912669</c:v>
+                  <c:v>-62.948543597680739</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-67.849990980717678</c:v>
+                  <c:v>-63.119186035175019</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-67.865537264423025</c:v>
+                  <c:v>-63.282595613038133</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-67.880971137473495</c:v>
+                  <c:v>-63.439219201367877</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-67.896293411798638</c:v>
+                  <c:v>-63.589474321204506</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-67.911504894009269</c:v>
+                  <c:v>-63.733749191729274</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-67.92660638509679</c:v>
+                  <c:v>-63.872403625116263</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-70.079254350650842</c:v>
+                  <c:v>-63.951657975767098</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-67.941598680340576</c:v>
+                  <c:v>-64.056676461955192</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-67.956482569298558</c:v>
+                  <c:v>-64.16661832306913</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-67.971258835829715</c:v>
+                  <c:v>-64.278397767676452</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-67.985928258128581</c:v>
+                  <c:v>-64.390020580784693</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-68.000491608763951</c:v>
+                  <c:v>-64.500230572470642</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-68.014949654718663</c:v>
+                  <c:v>-64.608264931734283</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-68.029303157429808</c:v>
+                  <c:v>-64.713686601103888</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-68.04355287282867</c:v>
+                  <c:v>-64.816270567180268</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-68.057699551380594</c:v>
+                  <c:v>-64.915927512331393</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-68.071743938124428</c:v>
+                  <c:v>-65.012653096062238</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-68.085686772711824</c:v>
+                  <c:v>-65.106494642065826</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-68.099528789446154</c:v>
+                  <c:v>-65.197529526789964</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-68.113270717321186</c:v>
+                  <c:v>-65.285851354416138</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-68.126913280059455</c:v>
+                  <c:v>-65.371561258862172</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-68.140457196150436</c:v>
+                  <c:v>-65.454762544944501</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-68.153903178888342</c:v>
+                  <c:v>-65.535557479092375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-68.167251936409713</c:v>
+                  <c:v>-65.61404544625502</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-68.180504171730661</c:v>
+                  <c:v>-65.690321962575112</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-68.193660582783949</c:v>
+                  <c:v>-65.764478214836501</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-68.206721862455709</c:v>
+                  <c:v>-65.836600917038211</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-68.219688698622008</c:v>
+                  <c:v>-65.906772352124861</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-68.23256177418493</c:v>
+                  <c:v>-65.975070516923907</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-68.245341767108698</c:v>
+                  <c:v>-66.041569320202186</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-68.258029350455288</c:v>
+                  <c:v>-66.106338803818005</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-68.270625192419914</c:v>
+                  <c:v>-66.169445369430676</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-68.283129956366167</c:v>
+                  <c:v>-66.230952000894334</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-68.295544300861039</c:v>
+                  <c:v>-66.29091847709968</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-68.307868879709517</c:v>
+                  <c:v>-66.349401572779684</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-68.320104341989065</c:v>
+                  <c:v>-66.406455246392611</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-68.332251332083814</c:v>
+                  <c:v>-66.462130815091399</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-68.344310489718467</c:v>
+                  <c:v>-66.516477117265993</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-68.35628244999198</c:v>
+                  <c:v>-66.56954066337758</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-68.368167843411086</c:v>
+                  <c:v>-66.621365775895455</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-68.379967295923407</c:v>
+                  <c:v>-66.67199471916031</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-68.39168142895052</c:v>
+                  <c:v>-66.721467819970954</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-68.403310859420543</c:v>
+                  <c:v>-66.769823579642633</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-68.414856199800766</c:v>
+                  <c:v>-66.817098778230758</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-68.426318058129851</c:v>
+                  <c:v>-66.863328571555456</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-68.437697038049834</c:v>
+                  <c:v>-66.908546581607851</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-68.448993738837956</c:v>
+                  <c:v>-66.952784980867207</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-68.460208755438174</c:v>
+                  <c:v>-66.996074571010297</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-68.471342678492533</c:v>
+                  <c:v>-67.038444856451392</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-68.482396094372305</c:v>
+                  <c:v>-67.079924113112099</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-68.493369585208768</c:v>
+                  <c:v>-67.12053945278447</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-68.504263728923974</c:v>
+                  <c:v>-67.160316883419839</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-68.515079099261101</c:v>
+                  <c:v>-67.199281365645987</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-68.525816265814711</c:v>
+                  <c:v>-67.237456865790264</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-68.536475794060763</c:v>
+                  <c:v>-67.27486640566211</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-68.547058245386353</c:v>
+                  <c:v>-67.311532109327644</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-68.557564177119303</c:v>
+                  <c:v>-67.347475247089605</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-68.567994142557495</c:v>
+                  <c:v>-67.382716276868621</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-70.079254350650842</c:v>
+                  <c:v>-67.461970627519463</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-68.578348690998055</c:v>
+                  <c:v>-67.452433528705214</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-68.588628367766233</c:v>
+                  <c:v>-67.466654238099949</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-68.598833714244151</c:v>
+                  <c:v>-67.491190014138851</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-68.608965267899293</c:v>
+                  <c:v>-67.51998081876458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-68.619023562312819</c:v>
+                  <c:v>-67.550320034439281</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-68.629009127207681</c:v>
+                  <c:v>-67.581012588058371</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-68.63892248847651</c:v>
+                  <c:v>-67.611539426787971</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-68.648764168209311</c:v>
+                  <c:v>-67.64168140117323</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-68.658534684720948</c:v>
+                  <c:v>-67.67135125097532</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-68.668234552578468</c:v>
+                  <c:v>-67.700519130121506</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-68.677864282628192</c:v>
+                  <c:v>-67.729179851892312</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-68.687424382022598</c:v>
+                  <c:v>-67.757338598648943</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-68.696915354247068</c:v>
+                  <c:v>-67.785004740491829</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-68.706337699146346</c:v>
+                  <c:v>-67.812189187430462</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-68.715691912950916</c:v>
+                  <c:v>-67.838903269215578</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-68.724978488303137</c:v>
+                  <c:v>-67.865158270308726</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-68.734197914283158</c:v>
+                  <c:v>-67.890965243402704</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-68.743350676434659</c:v>
+                  <c:v>-67.916334940227031</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-68.752437256790472</c:v>
+                  <c:v>-67.941277791126936</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-68.761458133897975</c:v>
+                  <c:v>-67.965803904546519</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-68.770413782844216</c:v>
+                  <c:v>-67.989923074357549</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-68.779304675281026</c:v>
+                  <c:v>-68.013644790047749</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-68.788131279449786</c:v>
+                  <c:v>-68.036978247733288</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-68.7968940602061</c:v>
+                  <c:v>-68.059932361182064</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-68.805593479044362</c:v>
+                  <c:v>-68.082515772535331</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-68.814229994121916</c:v>
+                  <c:v>-68.104736862617898</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-68.822804060283332</c:v>
+                  <c:v>-68.126603760809147</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-68.831316129084229</c:v>
+                  <c:v>-68.148124354478142</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-68.839766648815143</c:v>
+                  <c:v>-68.169306297998375</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-68.848156064525114</c:v>
+                  <c:v>-68.190157021360832</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-68.856484818045118</c:v>
+                  <c:v>-68.210683738405592</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-68.864753348011362</c:v>
+                  <c:v>-68.230893454690971</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-68.87296208988829</c:v>
+                  <c:v>-68.250792975018641</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-68.881111475991673</c:v>
+                  <c:v>-68.270388910632704</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-68.889201935511252</c:v>
+                  <c:v>-68.289687686108437</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-68.897233894533386</c:v>
+                  <c:v>-68.308695545946989</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-68.905207776063492</c:v>
+                  <c:v>-68.327418560890251</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-68.913124000048327</c:v>
+                  <c:v>-68.345862633969958</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-68.92098298339809</c:v>
+                  <c:v>-68.364033506303983</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-68.928785140008358</c:v>
+                  <c:v>-68.381936762652188</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-68.936530880781959</c:v>
+                  <c:v>-68.399577836743504</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-68.944220613650558</c:v>
+                  <c:v>-68.416962016385114</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-68.951854743596101</c:v>
+                  <c:v>-68.434094448364277</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-68.959433672672262</c:v>
+                  <c:v>-68.45098014315252</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-68.966957800025455</c:v>
+                  <c:v>-68.467623979421461</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-68.974427521916056</c:v>
+                  <c:v>-68.484030708379265</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-68.981843231739049</c:v>
+                  <c:v>-68.500204957935694</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-68.989205320044945</c:v>
+                  <c:v>-68.516151236704061</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-68.996514174560218</c:v>
+                  <c:v>-68.531873937847166</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-69.003770180207766</c:v>
+                  <c:v>-68.547377342774553</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-69.010973719127236</c:v>
+                  <c:v>-68.562665624697672</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-70.079254350650842</c:v>
+                  <c:v>-68.641919975348515</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-69.018125170695015</c:v>
+                  <c:v>-68.602025451354152</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-69.025224911544385</c:v>
+                  <c:v>-68.599999097667222</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-69.032273315585201</c:v>
+                  <c:v>-68.60951031980818</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-69.039270754023676</c:v>
+                  <c:v>-68.622416041058074</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-69.046217595381933</c:v>
+                  <c:v>-68.636218104044161</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-69.053114205517318</c:v>
+                  <c:v>-68.650157435539157</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-69.059960947641798</c:v>
+                  <c:v>-68.6640067520744</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-69.066758182341005</c:v>
+                  <c:v>-68.677700147643819</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-69.073506267593217</c:v>
+                  <c:v>-68.691220288674927</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-69.080205558788322</c:v>
+                  <c:v>-68.704564315682859</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-69.086856408746371</c:v>
+                  <c:v>-68.717733613445446</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-69.093459167736285</c:v>
+                  <c:v>-68.73073076572561</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-69.100014183494238</c:v>
+                  <c:v>-68.743558656485035</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-69.106521801242025</c:v>
+                  <c:v>-68.756220207598261</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-69.112982363705186</c:v>
+                  <c:v>-68.768718303872703</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-69.119396211131104</c:v>
+                  <c:v>-68.781055772745276</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-69.125763681306864</c:v>
+                  <c:v>-68.793235379787973</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-69.132085109577133</c:v>
+                  <c:v>-68.805259828718846</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-69.138360828861693</c:v>
+                  <c:v>-68.817131762656189</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-69.144591169673134</c:v>
+                  <c:v>-68.828853765683263</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-69.150776460134125</c:v>
+                  <c:v>-68.84042836445937</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-69.156917025994744</c:v>
+                  <c:v>-68.851858029804987</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-69.16301319064965</c:v>
+                  <c:v>-68.863145178241609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,11 +1332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373824480"/>
-        <c:axId val="373821760"/>
+        <c:axId val="-1289269664"/>
+        <c:axId val="-1289265312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373824480"/>
+        <c:axId val="-1289269664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,12 +1393,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373821760"/>
+        <c:crossAx val="-1289265312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373821760"/>
+        <c:axId val="-1289265312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1455,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373824480"/>
+        <c:crossAx val="-1289269664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2064,20 +2064,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>127747</xdr:rowOff>
+      <xdr:rowOff>138953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2361,7 +2361,7 @@
   <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,11 +2415,11 @@
         <v>-70</v>
       </c>
       <c r="D4">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A4-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A4)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D4:F23" si="0">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A4-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A4)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A4-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A4)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-7.9254350650838551E-2</v>
       </c>
     </row>
@@ -2428,19 +2428,19 @@
         <v>9.9999999999999006E-2</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B68" si="0">SUM(C5:G5)</f>
-        <v>-70.048472669067195</v>
+        <f t="shared" ref="B5:B68" si="1">SUM(C5:G5)</f>
+        <v>-70.127153947332417</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C68" si="1">($K$7-$L$7)*$M$7^A5+$L$7</f>
-        <v>-70</v>
+        <f>(B4-$L$7)*$M$7^A5+$L$7</f>
+        <v>-70.078681278265222</v>
       </c>
       <c r="D5">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A5-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A5)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>2.9653060815441924E-2</v>
       </c>
       <c r="E5">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A5-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A5)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-7.8125729882643768E-2</v>
       </c>
     </row>
@@ -2449,19 +2449,19 @@
         <v>0.19999999999999901</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>-70.134610057209201</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="2">(B5-$L$7)*$M$7^A6+$L$7</f>
+        <v>-70.125321745898461</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>-70.00928831131074</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D6">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A6-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A6)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>6.7335766818875833E-2</v>
       </c>
       <c r="E6">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A6-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A6)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-7.6624078129609183E-2</v>
       </c>
       <c r="K6" t="s">
@@ -2479,19 +2479,19 @@
         <v>0.29999999999999899</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>-70.092286601622035</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>-70.131711105024422</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>-69.960575496597613</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D7">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A7-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A7)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.11395821329010938</v>
       </c>
       <c r="E7">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A7-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A7)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-7.4533709887722954E-2</v>
       </c>
       <c r="K7">
@@ -2509,19 +2509,19 @@
         <v>0.39999999999999902</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-69.991095722882193</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>-70.089646189292168</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>-69.901449533590025</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D8">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A8-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A8)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.17009445343799268</v>
       </c>
       <c r="E8">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A8-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A8)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-7.1543987028015801E-2</v>
       </c>
     </row>
@@ -2530,19 +2530,19 @@
         <v>0.5</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>-69.822783846154778</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-69.991413026119673</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>-69.831370820035104</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D9">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A9-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A9)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.23585313071683148</v>
       </c>
       <c r="E9">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A9-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A9)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-6.7223950751941181E-2</v>
       </c>
     </row>
@@ -2551,19 +2551,19 @@
         <v>0.6</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>-69.580556539890551</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-69.8303346818238</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>-69.750221858066752</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D10">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A10-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A10)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.31077687309986951</v>
       </c>
       <c r="E10">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A10-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A10)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-6.0998731166621425E-2</v>
       </c>
     </row>
@@ -2572,19 +2572,19 @@
         <v>0.7</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>-69.259673813329101</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-69.601331895436402</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>-69.658341917892699</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D11">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A11-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A11)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.39379087434614302</v>
       </c>
       <c r="E11">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A11-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A11)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-5.213279223883955E-2</v>
       </c>
     </row>
@@ -2593,19 +2593,19 @@
         <v>0.8</v>
       </c>
       <c r="B12">
+        <f t="shared" si="1"/>
+        <v>-68.857941141229787</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>-69.301430741052087</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>-69.5565104001777</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D12">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A12-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A12)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.48321603638116156</v>
       </c>
       <c r="E12">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A12-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A12)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-3.9726436558859379E-2</v>
       </c>
     </row>
@@ -2614,19 +2614,19 @@
         <v>0.9</v>
       </c>
       <c r="B13">
+        <f t="shared" si="1"/>
+        <v>-68.376028871063241</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>-68.930149385154365</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>-69.445879485908875</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D13">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A13-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A13)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.57685308758316289</v>
       </c>
       <c r="E13">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A13-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A13)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>-2.2732573492033892E-2</v>
       </c>
     </row>
@@ -2635,19 +2635,19 @@
         <v>1</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>-67.817574137251839</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>-68.489706850088808</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>-69.327867287163031</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D14">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A14-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A14)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.67213271283697096</v>
       </c>
       <c r="E14">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A14-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A14)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2656,19 +2656,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B15">
+        <f t="shared" si="1"/>
+        <v>-67.189051700819007</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>-67.985019985317223</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>-69.204031715501785</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D15">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A15-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A15)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.76631522368276705</v>
       </c>
       <c r="E15">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A15-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A15)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>2.9653060815442361E-2</v>
       </c>
     </row>
@@ -2677,19 +2677,19 @@
         <v>1.2</v>
       </c>
       <c r="B16">
+        <f t="shared" si="1"/>
+        <v>-66.499436684390787</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-67.423486655641611</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>-69.075950028749176</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D16">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A16-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A16)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.85671420443195445</v>
       </c>
       <c r="E16">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A16-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A16)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>6.7335766818876264E-2</v>
       </c>
     </row>
@@ -2698,19 +2698,19 @@
         <v>1.3</v>
       </c>
       <c r="B17">
+        <f t="shared" si="1"/>
+        <v>-65.759714612989754</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>-66.814586836814328</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>-68.945127776175426</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D17">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A17-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A17)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.94091401053447221</v>
       </c>
       <c r="E17">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A17-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A17)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>0.11395821329011008</v>
       </c>
     </row>
@@ -2719,19 +2719,19 @@
         <v>1.4</v>
       </c>
       <c r="B18">
+        <f t="shared" si="1"/>
+        <v>-64.98231457703541</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>-66.169361094770494</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>-68.812953482264916</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D18">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A18-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A18)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>1.0169520642970886</v>
       </c>
       <c r="E18">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A18-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A18)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>0.17009445343799337</v>
       </c>
     </row>
@@ -2740,19 +2740,19 @@
         <v>1.5</v>
       </c>
       <c r="B19">
+        <f t="shared" si="1"/>
+        <v>-64.180544579547302</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>-65.499841056173594</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>-68.680703523373708</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D19">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A19-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A19)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>1.0834433459094619</v>
       </c>
       <c r="E19">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A19-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A19)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>0.23585313071683167</v>
       </c>
     </row>
@@ -2761,19 +2761,19 @@
         <v>1.6</v>
       </c>
       <c r="B20">
+        <f t="shared" si="1"/>
+        <v>-63.368093567230453</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>-64.818505239434074</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>-68.549588327796371</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D20">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A20-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A20)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>1.1396347991037556</v>
       </c>
       <c r="E20">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A20-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A20)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>0.31077687309986995</v>
       </c>
     </row>
@@ -2782,19 +2782,19 @@
         <v>1.7</v>
       </c>
       <c r="B21">
+        <f t="shared" si="1"/>
+        <v>-62.558636499414128</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>-64.137816579974626</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>-68.420819919439509</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D21">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A21-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A21)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>1.1853892062143534</v>
       </c>
       <c r="E21">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A21-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A21)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>0.39379087434614318</v>
       </c>
     </row>
@@ -2803,19 +2803,19 @@
         <v>1.8</v>
       </c>
       <c r="B22">
+        <f t="shared" si="1"/>
+        <v>-61.765545069184768</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>-63.469870000311396</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>-68.295675068873379</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D22">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A22-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A22)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>1.2211088947454596</v>
       </c>
       <c r="E22">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A22-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A22)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>0.48321603638116184</v>
       </c>
     </row>
@@ -2824,19 +2824,19 @@
         <v>1.9</v>
       </c>
       <c r="B23">
+        <f t="shared" si="1"/>
+        <v>-61.001676799749774</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>-62.826147233315005</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>-68.175529566434761</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="D23">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A23-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A23)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>1.2476173459820736</v>
       </c>
       <c r="E23">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A23-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A23)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="0"/>
         <v>0.576853087583163</v>
       </c>
     </row>
@@ -2845,19 +2845,19 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>-68.061847033140438</v>
+        <f t="shared" si="1"/>
+        <v>-60.279197297244011</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-62.21735026410358</v>
       </c>
       <c r="D24">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A24-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A24)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D24:F43" si="3">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A24-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A24)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>1.2660202540225967</v>
       </c>
       <c r="E24">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A24-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A24)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>0.67213271283697118</v>
       </c>
     </row>
@@ -2866,19 +2866,19 @@
         <v>2.1</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>-67.956117980445057</v>
+        <f t="shared" si="1"/>
+        <v>-59.609388837628487</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-61.653270857183429</v>
       </c>
       <c r="D25">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A25-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A25)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2775667958721788</v>
       </c>
       <c r="E25">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A25-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A25)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>0.76631522368276728</v>
       </c>
     </row>
@@ -2887,19 +2887,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>-67.859758072896369</v>
+        <f t="shared" si="1"/>
+        <v>-59.002412691968736</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-61.142654619072367</v>
       </c>
       <c r="D26">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A26-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A26)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2835277226716779</v>
       </c>
       <c r="E26">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A26-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A26)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>0.85671420443195478</v>
       </c>
     </row>
@@ -2908,19 +2908,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>-67.773985161415851</v>
+        <f t="shared" si="1"/>
+        <v>-58.467017601991365</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-60.693032440575514</v>
       </c>
       <c r="D27">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A27-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A27)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2851008280496783</v>
       </c>
       <c r="E27">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A27-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A27)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>0.94091401053447221</v>
       </c>
     </row>
@@ -2929,19 +2929,19 @@
         <v>2.4</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>-67.699699983602613</v>
+        <f t="shared" si="1"/>
+        <v>-58.010214738504899</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-60.310514754902286</v>
       </c>
       <c r="D28">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A28-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A28)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2833479521002993</v>
       </c>
       <c r="E28">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A28-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A28)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.0169520642970886</v>
       </c>
     </row>
@@ -2950,19 +2950,19 @@
         <v>2.5</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>-67.637394441571971</v>
+        <f t="shared" si="1"/>
+        <v>-57.636962092249291</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.999567650677328</v>
       </c>
       <c r="D29">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A29-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A29)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.279162212518572</v>
       </c>
       <c r="E29">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A29-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A29)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.0834433459094621</v>
       </c>
     </row>
@@ -2971,19 +2971,19 @@
         <v>2.6</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>-67.587104820800405</v>
+        <f t="shared" si="1"/>
+        <v>-57.349912384502694</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.762807563702289</v>
       </c>
       <c r="D30">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A30-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A30)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.27326038009584</v>
       </c>
       <c r="E30">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A30-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A30)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.1396347991037559</v>
       </c>
     </row>
@@ -2992,19 +2992,19 @@
         <v>2.7</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>-67.548417350017132</v>
+        <f t="shared" si="1"/>
+        <v>-57.149275684061045</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.600858334043906</v>
       </c>
       <c r="D31">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A31-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A31)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2661934437685076</v>
       </c>
       <c r="E31">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A31-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A31)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.1853892062143538</v>
       </c>
     </row>
@@ -3013,19 +3013,19 @@
         <v>2.8</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>-67.520522899931763</v>
+        <f t="shared" si="1"/>
+        <v>-57.0328323925443</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.512309492612545</v>
       </c>
       <c r="D32">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A32-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A32)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2583682053227812</v>
       </c>
       <c r="E32">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A32-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A32)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2211088947454596</v>
       </c>
     </row>
@@ -3034,19 +3034,19 @@
         <v>2.9</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>-67.50230894344061</v>
+        <f t="shared" si="1"/>
+        <v>-56.99610867171576</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.493799728275135</v>
       </c>
       <c r="D33">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A33-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A33)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.250073710577307</v>
       </c>
       <c r="E33">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A33-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A33)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2476173459820739</v>
       </c>
     </row>
@@ -3055,19 +3055,19 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>-67.492471847288883</v>
+        <f t="shared" si="1"/>
+        <v>-57.032700830144144</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.540228982855268</v>
       </c>
       <c r="D34">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A34-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A34)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2415078986885253</v>
       </c>
       <c r="E34">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A34-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A34)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2660202540225967</v>
       </c>
     </row>
@@ -3076,19 +3076,19 @@
         <v>3.1</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>-67.489631657160174</v>
+        <f t="shared" si="1"/>
+        <v>-57.134713489322763</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.645081832162589</v>
       </c>
       <c r="D35">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A35-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A35)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2328015469676501</v>
       </c>
       <c r="E35">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A35-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A35)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2775667958721788</v>
       </c>
     </row>
@@ -3097,19 +3097,19 @@
         <v>3.2</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>-67.492434205613776</v>
+        <f t="shared" si="1"/>
+        <v>-57.293262629454617</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.800828423840841</v>
       </c>
       <c r="D36">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A36-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A36)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2240380717145465</v>
       </c>
       <c r="E36">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A36-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A36)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2835277226716779</v>
       </c>
     </row>
@@ -3118,19 +3118,19 @@
         <v>3.3</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>-67.499630322365945</v>
+        <f t="shared" si="1"/>
+        <v>-57.498990551230925</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-59.99936022886498</v>
       </c>
       <c r="D37">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A37-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A37)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2152688495843738</v>
       </c>
       <c r="E37">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A37-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A37)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2851008280496785</v>
       </c>
     </row>
@@ -3139,19 +3139,19 @@
         <v>3.4</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>-67.510127628471665</v>
+        <f t="shared" si="1"/>
+        <v>-57.742544669189712</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-60.232417040718047</v>
       </c>
       <c r="D38">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A38-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A38)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2065244194280318</v>
       </c>
       <c r="E38">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A38-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A38)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2833479521002993</v>
       </c>
     </row>
@@ -3160,19 +3160,19 @@
         <v>3.5</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>-67.523015517872167</v>
+        <f t="shared" si="1"/>
+        <v>-58.014983419918273</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-60.491967902046106</v>
       </c>
       <c r="D39">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A39-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A39)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.1978222696092615</v>
       </c>
       <c r="E39">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A39-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A39)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.279162212518572</v>
       </c>
     </row>
@@ -3181,19 +3181,19 @@
         <v>3.6</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>-67.53756761216448</v>
+        <f t="shared" si="1"/>
+        <v>-58.308087167458872</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-60.770519555294399</v>
       </c>
       <c r="D40">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A40-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A40)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.1891720077396881</v>
       </c>
       <c r="E40">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A40-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A40)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.27326038009584</v>
       </c>
     </row>
@@ -3202,19 +3202,19 @@
         <v>3.7</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>-67.553227907917176</v>
+        <f t="shared" si="1"/>
+        <v>-58.614566668870289</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-61.06133876095312</v>
       </c>
       <c r="D41">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A41-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A41)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.180578648314323</v>
       </c>
       <c r="E41">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A41-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A41)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2661934437685076</v>
       </c>
     </row>
@@ -3223,19 +3223,19 @@
         <v>3.8</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>-67.569587174502288</v>
+        <f t="shared" si="1"/>
+        <v>-58.928174031992491</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-61.358586857490209</v>
       </c>
       <c r="D42">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A42-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A42)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.1720446201749339</v>
       </c>
       <c r="E42">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A42-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A42)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.2583682053227812</v>
       </c>
     </row>
@@ -3244,19 +3244,19 @@
         <v>3.9</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>-67.58635534383447</v>
+        <f t="shared" si="1"/>
+        <v>-59.243729814584682</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-61.657374470750199</v>
       </c>
       <c r="D43">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A43-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A43)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.1635709455882124</v>
       </c>
       <c r="E43">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A43-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A43)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="3"/>
         <v>1.250073710577307</v>
       </c>
     </row>
@@ -3265,19 +3265,19 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>-67.603334193971733</v>
+        <f t="shared" si="1"/>
+        <v>-59.557084661668732</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-61.953750467696999</v>
       </c>
       <c r="D44">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A44-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A44)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D44:F63" si="4">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A44-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A44)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>1.1551579073397442</v>
       </c>
       <c r="E44">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A44-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A44)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.2415078986885253</v>
       </c>
     </row>
@@ -3286,19 +3286,19 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>-67.620393040317339</v>
+        <f t="shared" si="1"/>
+        <v>-59.865035114087959</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-62.244642073770628</v>
       </c>
       <c r="D45">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A45-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A45)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1468054127150147</v>
       </c>
       <c r="E45">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A45-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A45)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.2328015469676501</v>
       </c>
     </row>
@@ -3307,19 +3307,19 @@
         <v>4.2</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
-        <v>-67.637448743085599</v>
+        <f t="shared" si="1"/>
+        <v>-60.165211843837476</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-62.527763100751869</v>
       </c>
       <c r="D46">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A46-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A46)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1385131851998482</v>
       </c>
       <c r="E46">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A46-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A46)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.2240380717145465</v>
       </c>
     </row>
@@ -3328,19 +3328,19 @@
         <v>4.3</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>-67.654450288402543</v>
+        <f t="shared" si="1"/>
+        <v>-60.455955603451315</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-62.801505315048772</v>
       </c>
       <c r="D47">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A47-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A47)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1302808620130829</v>
       </c>
       <c r="E47">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A47-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A47)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.2152688495843738</v>
       </c>
     </row>
@@ -3349,19 +3349,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>-67.671367538500846</v>
+        <f t="shared" si="1"/>
+        <v>-60.736192536279667</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-63.064824997778814</v>
       </c>
       <c r="D48">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A48-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A48)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1221080420711163</v>
       </c>
       <c r="E48">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A48-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A48)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.2065244194280316</v>
       </c>
     </row>
@@ -3370,19 +3370,19 @@
         <v>4.5</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>-67.688183421593394</v>
+        <f t="shared" si="1"/>
+        <v>-61.00531687274173</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-63.317133451148337</v>
       </c>
       <c r="D49">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A49-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A49)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1139943087973483</v>
       </c>
       <c r="E49">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A49-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A49)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1978222696092615</v>
       </c>
     </row>
@@ -3391,19 +3391,19 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>-67.704888751647758</v>
+        <f t="shared" si="1"/>
+        <v>-61.26308586623427</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-63.55819711458652</v>
       </c>
       <c r="D50">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A50-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A50)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1059392406125612</v>
       </c>
       <c r="E50">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A50-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A50)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1891720077396881</v>
       </c>
     </row>
@@ -3412,19 +3412,19 @@
         <v>4.7</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>-67.721478936086726</v>
+        <f t="shared" si="1"/>
+        <v>-61.509529304193933</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-63.788050368107207</v>
       </c>
       <c r="D51">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A51-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A51)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0979424155989521</v>
       </c>
       <c r="E51">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A51-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A51)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.180578648314323</v>
       </c>
     </row>
@@ -3433,19 +3433,19 @@
         <v>4.8</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>-67.737951966323877</v>
+        <f t="shared" si="1"/>
+        <v>-61.744874099336435</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-64.006922133012566</v>
       </c>
       <c r="D52">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A52-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A52)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0900034135011931</v>
       </c>
       <c r="E52">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A52-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A52)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1720446201749339</v>
       </c>
     </row>
@@ -3454,19 +3454,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>-67.754307237861155</v>
+        <f t="shared" si="1"/>
+        <v>-61.969483254437399</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-64.215176016576237</v>
       </c>
       <c r="D53">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A53-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A53)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0821218165506259</v>
       </c>
       <c r="E53">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A53-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A53)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1635709455882124</v>
       </c>
     </row>
@@ -3475,19 +3475,19 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
-        <v>-67.770544882873921</v>
+        <f t="shared" si="1"/>
+        <v>-62.183807783517125</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-64.413262900643204</v>
       </c>
       <c r="D54">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A54-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A54)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0742972097863392</v>
       </c>
       <c r="E54">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A54-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A54)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1551579073397442</v>
       </c>
     </row>
@@ -3496,19 +3496,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>-67.786665406116853</v>
+        <f t="shared" si="1"/>
+        <v>-62.388349834795861</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-64.601684428679008</v>
       </c>
       <c r="D55">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A55-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A55)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0665291811681321</v>
       </c>
       <c r="E55">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A55-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A55)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1468054127150147</v>
       </c>
     </row>
@@ -3517,19 +3517,19 @@
         <v>5.2</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
-        <v>-67.80266949319396</v>
+        <f t="shared" si="1"/>
+        <v>-62.583635179998709</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-64.780965686804734</v>
       </c>
       <c r="D56">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A56-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A56)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0588173216061794</v>
       </c>
       <c r="E56">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A56-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A56)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1385131851998482</v>
       </c>
     </row>
@@ -3538,19 +3538,19 @@
         <v>5.3</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
-        <v>-67.818557913028457</v>
+        <f t="shared" si="1"/>
+        <v>-62.77019331600993</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-64.951635402981481</v>
       </c>
       <c r="D57">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A57-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A57)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0511612249584688</v>
       </c>
       <c r="E57">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A57-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A57)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1302808620130829</v>
       </c>
     </row>
@@ -3559,19 +3559,19 @@
         <v>5.4</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
-        <v>-67.834331469912669</v>
+        <f t="shared" si="1"/>
+        <v>-62.948543597680739</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-65.11421212776807</v>
       </c>
       <c r="D58">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A58-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A58)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0435604880162133</v>
       </c>
       <c r="E58">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A58-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A58)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1221080420711163</v>
       </c>
     </row>
@@ -3580,19 +3580,19 @@
         <v>5.5</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
-        <v>-67.849990980717678</v>
+        <f t="shared" si="1"/>
+        <v>-63.119186035175019</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-65.269195054457342</v>
       </c>
       <c r="D59">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A59-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A59)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0360147104849819</v>
       </c>
       <c r="E59">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A59-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A59)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1139943087973483</v>
       </c>
     </row>
@@ -3601,19 +3601,19 @@
         <v>5.6</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>-67.865537264423025</v>
+        <f t="shared" si="1"/>
+        <v>-63.282595613038133</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-65.417058348615114</v>
       </c>
       <c r="D60">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A60-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A60)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0285234949644158</v>
       </c>
       <c r="E60">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A60-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A60)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.1059392406125612</v>
       </c>
     </row>
@@ -3622,19 +3622,19 @@
         <v>5.7</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
-        <v>-67.880971137473495</v>
+        <f t="shared" si="1"/>
+        <v>-63.439219201367877</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-65.558248063894382</v>
       </c>
       <c r="D61">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A61-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A61)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.02108644692756</v>
       </c>
       <c r="E61">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A61-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A61)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0979424155989521</v>
       </c>
     </row>
@@ -3643,19 +3643,19 @@
         <v>5.8</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
-        <v>-67.896293411798638</v>
+        <f t="shared" si="1"/>
+        <v>-63.589474321204506</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-65.693180909405868</v>
       </c>
       <c r="D62">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A62-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A62)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0137031747001704</v>
       </c>
       <c r="E62">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A62-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A62)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0900034135011931</v>
       </c>
     </row>
@@ -3664,19 +3664,19 @@
         <v>5.9</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
-        <v>-67.911504894009269</v>
+        <f t="shared" si="1"/>
+        <v>-63.733749191729274</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-65.822244297720005</v>
       </c>
       <c r="D63">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A63-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A63)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0063732894401098</v>
       </c>
       <c r="E63">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A63-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A63)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="4"/>
         <v>1.0821218165506259</v>
       </c>
     </row>
@@ -3685,37 +3685,37 @@
         <v>6</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
-        <v>-67.92660638509679</v>
+        <f t="shared" si="1"/>
+        <v>-63.872403625116263</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-65.945797240019473</v>
       </c>
       <c r="D64">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A64-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A64)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D64:F83" si="5">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A64-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A64)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.99909640511687758</v>
       </c>
       <c r="E64">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A64-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A64)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0742972097863392</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f t="shared" si="0"/>
-        <v>-70.079254350650842</v>
+        <f t="shared" si="1"/>
+        <v>-63.951657975767098</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-63.872403625116263</v>
       </c>
       <c r="D65">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A65-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A65)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A65-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A65)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>-7.9254350650838551E-2</v>
       </c>
     </row>
@@ -3724,19 +3724,19 @@
         <v>6.1</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
-        <v>-67.941598680340576</v>
+        <f t="shared" si="1"/>
+        <v>-64.056676461955192</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-66.115077781614616</v>
       </c>
       <c r="D66">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A66-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A66)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.99187213849128242</v>
       </c>
       <c r="E66">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A66-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A66)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0665291811681321</v>
       </c>
     </row>
@@ -3745,19 +3745,19 @@
         <v>6.2</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
-        <v>-67.956482569298558</v>
+        <f t="shared" si="1"/>
+        <v>-64.16661832306913</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-66.210135753770572</v>
       </c>
       <c r="D67">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A67-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A67)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.9847001090952584</v>
       </c>
       <c r="E67">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A67-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A67)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0588173216061794</v>
       </c>
     </row>
@@ -3766,19 +3766,19 @@
         <v>6.3</v>
       </c>
       <c r="B68">
-        <f t="shared" si="0"/>
-        <v>-67.971258835829715</v>
+        <f t="shared" si="1"/>
+        <v>-64.278397767676452</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-66.307138931846737</v>
       </c>
       <c r="D68">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A68-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A68)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.97757993921182795</v>
       </c>
       <c r="E68">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A68-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A68)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0511612249584688</v>
       </c>
     </row>
@@ -3787,19 +3787,19 @@
         <v>6.4</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:B132" si="2">SUM(C69:G69)</f>
-        <v>-67.985928258128581</v>
+        <f t="shared" ref="B69:B132" si="6">SUM(C69:G69)</f>
+        <v>-64.390020580784693</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C132" si="3">($K$7-$L$7)*$M$7^A69+$L$7</f>
-        <v>-70</v>
+        <f t="shared" si="2"/>
+        <v>-66.404092322656112</v>
       </c>
       <c r="D69">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A69-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A69)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.97051125385520987</v>
       </c>
       <c r="E69">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A69-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A69)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0435604880162133</v>
       </c>
     </row>
@@ -3808,19 +3808,19 @@
         <v>6.5000000000000098</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
-        <v>-68.000491608763951</v>
+        <f t="shared" si="6"/>
+        <v>-64.500230572470642</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" ref="C70:C133" si="7">(B69-$L$7)*$M$7^A70+$L$7</f>
+        <v>-66.49973896370669</v>
       </c>
       <c r="D70">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A70-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A70)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.96349368075106978</v>
       </c>
       <c r="E70">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A70-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A70)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0360147104849813</v>
       </c>
     </row>
@@ -3829,19 +3829,19 @@
         <v>6.6</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
-        <v>-68.014949654718663</v>
+        <f t="shared" si="6"/>
+        <v>-64.608264931734283</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-66.59331527701562</v>
       </c>
       <c r="D71">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A71-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A71)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.95652685031691675</v>
       </c>
       <c r="E71">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A71-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A71)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0285234949644158</v>
       </c>
     </row>
@@ -3850,19 +3850,19 @@
         <v>6.7</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
-        <v>-68.029303157429808</v>
+        <f t="shared" si="6"/>
+        <v>-64.713686601103888</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-66.684383443674079</v>
       </c>
       <c r="D72">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A72-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A72)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.9496103956426335</v>
       </c>
       <c r="E72">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A72-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A72)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.02108644692756</v>
       </c>
     </row>
@@ -3871,19 +3871,19 @@
         <v>6.8000000000000096</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
-        <v>-68.04355287282867</v>
+        <f t="shared" si="6"/>
+        <v>-64.816270567180268</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-66.772717694351599</v>
       </c>
       <c r="D73">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A73-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A73)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.9427439524711585</v>
       </c>
       <c r="E73">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A73-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A73)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0137031747001697</v>
       </c>
     </row>
@@ -3892,19 +3892,19 @@
         <v>6.9000000000000101</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
-        <v>-68.057699551380594</v>
+        <f t="shared" si="6"/>
+        <v>-64.915927512331393</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-66.858227960950799</v>
       </c>
       <c r="D74">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A74-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A74)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.93592715917930169</v>
       </c>
       <c r="E74">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A74-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A74)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>1.0063732894401092</v>
       </c>
     </row>
@@ -3913,19 +3913,19 @@
         <v>7.0000000000000098</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
-        <v>-68.071743938124428</v>
+        <f t="shared" si="6"/>
+        <v>-65.012653096062238</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-66.94090915793781</v>
       </c>
       <c r="D75">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A75-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A75)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.92915965675869561</v>
       </c>
       <c r="E75">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A75-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A75)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.99909640511687692</v>
       </c>
     </row>
@@ -3934,19 +3934,19 @@
         <v>7.1</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
-        <v>-68.085686772711824</v>
+        <f t="shared" si="6"/>
+        <v>-65.106494642065826</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.020807869354002</v>
       </c>
       <c r="D76">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A76-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A76)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.92244108879689279</v>
       </c>
       <c r="E76">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A76-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A76)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.99187213849128242</v>
       </c>
     </row>
@@ -3955,19 +3955,19 @@
         <v>7.2000000000000099</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
-        <v>-68.099528789446154</v>
+        <f t="shared" si="6"/>
+        <v>-65.197529526789964</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.09800073734381</v>
       </c>
       <c r="D77">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A77-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A77)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.91577110145858964</v>
       </c>
       <c r="E77">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A77-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A77)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.98470010909525751</v>
       </c>
     </row>
@@ -3976,19 +3976,19 @@
         <v>7.3000000000000096</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
-        <v>-68.113270717321186</v>
+        <f t="shared" si="6"/>
+        <v>-65.285851354416138</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.172580637094953</v>
       </c>
       <c r="D78">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A78-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A78)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.9091493434669996</v>
       </c>
       <c r="E78">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A78-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A78)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.97757993921182706</v>
       </c>
     </row>
@@ -3997,19 +3997,19 @@
         <v>7.4000000000000101</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
-        <v>-68.126913280059455</v>
+        <f t="shared" si="6"/>
+        <v>-65.371561258862172</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.244647978802718</v>
       </c>
       <c r="D79">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A79-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A79)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.90257546608534467</v>
       </c>
       <c r="E79">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A79-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A79)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.97051125385520931</v>
       </c>
     </row>
@@ -4018,19 +4018,19 @@
         <v>7.5000000000000098</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
-        <v>-68.140457196150436</v>
+        <f t="shared" si="6"/>
+        <v>-65.454762544944501</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.314305348794065</v>
       </c>
       <c r="D80">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A80-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A80)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.89604912309849472</v>
       </c>
       <c r="E80">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A80-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A80)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.96349368075106978</v>
       </c>
     </row>
@@ -4039,19 +4039,19 @@
         <v>7.6000000000000103</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
-        <v>-68.153903178888342</v>
+        <f t="shared" si="6"/>
+        <v>-65.535557479092375</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.381654300204033</v>
       </c>
       <c r="D81">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A81-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A81)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.88956997079473177</v>
       </c>
       <c r="E81">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A81-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A81)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.95652685031691609</v>
       </c>
     </row>
@@ -4060,19 +4060,19 @@
         <v>7.7000000000000099</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
-        <v>-68.167251936409713</v>
+        <f t="shared" si="6"/>
+        <v>-65.61404544625502</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.446793509845307</v>
       </c>
       <c r="D82">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A82-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A82)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.88313766794764859</v>
       </c>
       <c r="E82">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A82-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A82)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.94961039564263283</v>
       </c>
     </row>
@@ -4081,19 +4081,19 @@
         <v>7.8000000000000096</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
-        <v>-68.180504171730661</v>
+        <f t="shared" si="6"/>
+        <v>-65.690321962575112</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.509817790844451</v>
       </c>
       <c r="D83">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A83-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A83)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.87675187579817737</v>
       </c>
       <c r="E83">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A83-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A83)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="5"/>
         <v>0.9427439524711585</v>
       </c>
     </row>
@@ -4102,19 +4102,19 @@
         <v>7.9000000000000101</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
-        <v>-68.193660582783949</v>
+        <f t="shared" si="6"/>
+        <v>-65.764478214836501</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.570817632052552</v>
       </c>
       <c r="D84">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A84-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A84)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D84:F103" si="8">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A84-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A84)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.87041225803675037</v>
       </c>
       <c r="E84">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A84-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A84)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.93592715917930169</v>
       </c>
     </row>
@@ -4123,19 +4123,19 @@
         <v>8.0000000000000107</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
-        <v>-68.206721862455709</v>
+        <f t="shared" si="6"/>
+        <v>-65.836600917038211</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.629879054582503</v>
       </c>
       <c r="D85">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A85-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A85)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.86411848078558706</v>
       </c>
       <c r="E85">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A85-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A85)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.92915965675869561</v>
       </c>
     </row>
@@ -4144,19 +4144,19 @@
         <v>8.1000000000000103</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
-        <v>-68.219688698622008</v>
+        <f t="shared" si="6"/>
+        <v>-65.906772352124861</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.687083653502853</v>
       </c>
       <c r="D86">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A86-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A86)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.85787021258110974</v>
       </c>
       <c r="E86">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A86-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A86)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.92244108879689213</v>
       </c>
     </row>
@@ -4165,19 +4165,19 @@
         <v>8.2000000000000099</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
-        <v>-68.23256177418493</v>
+        <f t="shared" si="6"/>
+        <v>-65.975070516923907</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.742508742738977</v>
       </c>
       <c r="D87">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A87-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A87)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.8516671243564885</v>
       </c>
       <c r="E87">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A87-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A87)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.91577110145858964</v>
       </c>
     </row>
@@ -4186,19 +4186,19 @@
         <v>8.3000000000000096</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
-        <v>-68.245341767108698</v>
+        <f t="shared" si="6"/>
+        <v>-66.041569320202186</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.796227553093487</v>
       </c>
       <c r="D88">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A88-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A88)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.84550888942430946</v>
       </c>
       <c r="E88">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A88-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A88)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.9091493434669996</v>
       </c>
     </row>
@@ -4207,19 +4207,19 @@
         <v>8.4000000000000092</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
-        <v>-68.258029350455288</v>
+        <f t="shared" si="6"/>
+        <v>-66.106338803818005</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.848309453362717</v>
       </c>
       <c r="D89">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A89-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A89)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.83939518345937059</v>
       </c>
       <c r="E89">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A89-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A89)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.90257546608534467</v>
       </c>
     </row>
@@ -4228,19 +4228,19 @@
         <v>8.5000000000000107</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
-        <v>-68.270625192419914</v>
+        <f t="shared" si="6"/>
+        <v>-66.169445369430676</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.898820177010762</v>
       </c>
       <c r="D90">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A90-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A90)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.83332568448160027</v>
       </c>
       <c r="E90">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A90-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A90)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.89604912309849472</v>
       </c>
     </row>
@@ -4249,19 +4249,19 @@
         <v>8.6000000000000103</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
-        <v>-68.283129956366167</v>
+        <f t="shared" si="6"/>
+        <v>-66.230952000894334</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.947822044528166</v>
       </c>
       <c r="D91">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A91-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A91)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.82730007283910068</v>
       </c>
       <c r="E91">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A91-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A91)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.88956997079473177</v>
       </c>
     </row>
@@ -4270,19 +4270,19 @@
         <v>8.7000000000000099</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
-        <v>-68.295544300861039</v>
+        <f t="shared" si="6"/>
+        <v>-66.29091847709968</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.995374176238641</v>
       </c>
       <c r="D92">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A92-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A92)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.82131803119131308</v>
       </c>
       <c r="E92">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A92-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A92)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.88313766794764859</v>
       </c>
     </row>
@@ -4291,19 +4291,19 @@
         <v>8.8000000000000096</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
-        <v>-68.307868879709517</v>
+        <f t="shared" si="6"/>
+        <v>-66.349401572779684</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.041532693070167</v>
       </c>
       <c r="D93">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A93-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A93)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.81537924449230492</v>
       </c>
       <c r="E93">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A93-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A93)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.87675187579817737</v>
       </c>
     </row>
@@ -4312,19 +4312,19 @@
         <v>8.9000000000000092</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
-        <v>-68.320104341989065</v>
+        <f t="shared" si="6"/>
+        <v>-66.406455246392611</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.086350904403545</v>
       </c>
       <c r="D94">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A94-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A94)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.80948339997417817</v>
       </c>
       <c r="E94">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A94-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A94)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.87041225803675037</v>
       </c>
     </row>
@@ -4333,19 +4333,19 @@
         <v>9.0000000000000107</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
-        <v>-68.332251332083814</v>
+        <f t="shared" si="6"/>
+        <v>-66.462130815091399</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.129879483007585</v>
       </c>
       <c r="D95">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A95-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A95)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.80363018713059586</v>
       </c>
       <c r="E95">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A95-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A95)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.86411848078558706</v>
       </c>
     </row>
@@ -4354,19 +4354,19 @@
         <v>9.1000000000000103</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
-        <v>-68.344310489718467</v>
+        <f t="shared" si="6"/>
+        <v>-66.516477117265993</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.172166627547526</v>
       </c>
       <c r="D96">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A96-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A96)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.79781929770043203</v>
       </c>
       <c r="E96">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A96-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A96)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.85787021258110974</v>
       </c>
     </row>
@@ -4375,19 +4375,19 @@
         <v>9.2000000000000099</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
-        <v>-68.35628244999198</v>
+        <f t="shared" si="6"/>
+        <v>-66.56954066337758</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.2132582133856</v>
       </c>
       <c r="D97">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A97-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A97)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.79205042565153427</v>
       </c>
       <c r="E97">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A97-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A97)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.8516671243564885</v>
       </c>
     </row>
@@ -4396,19 +4396,19 @@
         <v>9.3000000000000096</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
-        <v>-68.368167843411086</v>
+        <f t="shared" si="6"/>
+        <v>-66.621365775895455</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.253197932484369</v>
       </c>
       <c r="D98">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A98-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A98)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.78632326716460788</v>
       </c>
       <c r="E98">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A98-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A98)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.84550888942430946</v>
       </c>
     </row>
@@ -4417,19 +4417,19 @@
         <v>9.4000000000000092</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
-        <v>-68.379967295923407</v>
+        <f t="shared" si="6"/>
+        <v>-66.67199471916031</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.292027423236902</v>
       </c>
       <c r="D99">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A99-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A99)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.7806375206172147</v>
       </c>
       <c r="E99">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A99-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A99)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.83939518345937059</v>
       </c>
     </row>
@@ -4438,19 +4438,19 @@
         <v>9.5000000000000107</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
-        <v>-68.39168142895052</v>
+        <f t="shared" si="6"/>
+        <v>-66.721467819970954</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.329786391020434</v>
       </c>
       <c r="D100">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A100-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A100)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.77499288656788823</v>
       </c>
       <c r="E100">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A100-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A100)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.83332568448160027</v>
       </c>
     </row>
@@ -4459,19 +4459,19 @@
         <v>9.6000000000000103</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
-        <v>-68.403310859420543</v>
+        <f t="shared" si="6"/>
+        <v>-66.769823579642633</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.36651272022209</v>
       </c>
       <c r="D101">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A101-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A101)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.76938906774036386</v>
       </c>
       <c r="E101">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A101-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A101)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.82730007283910068</v>
       </c>
     </row>
@@ -4480,19 +4480,19 @@
         <v>9.7000000000000099</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
-        <v>-68.414856199800766</v>
+        <f t="shared" si="6"/>
+        <v>-66.817098778230758</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.402242578429991</v>
       </c>
       <c r="D102">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A102-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A102)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.76382576900792132</v>
       </c>
       <c r="E102">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A102-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A102)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.82131803119131308</v>
       </c>
     </row>
@@ -4501,19 +4501,19 @@
         <v>9.8000000000000096</v>
       </c>
       <c r="B103">
-        <f t="shared" si="2"/>
-        <v>-68.426318058129851</v>
+        <f t="shared" si="6"/>
+        <v>-66.863328571555456</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.437010513425605</v>
       </c>
       <c r="D103">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A103-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A103)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.75830269737784384</v>
       </c>
       <c r="E103">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A103-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A103)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="8"/>
         <v>0.81537924449230492</v>
       </c>
     </row>
@@ -4522,19 +4522,19 @@
         <v>9.9000000000000092</v>
       </c>
       <c r="B104">
-        <f t="shared" si="2"/>
-        <v>-68.437697038049834</v>
+        <f t="shared" si="6"/>
+        <v>-66.908546581607851</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.470849543558018</v>
       </c>
       <c r="D104">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A104-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A104)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D104:F123" si="9">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A104-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A104)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.75281956197598565</v>
       </c>
       <c r="E104">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A104-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A104)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.80948339997417817</v>
       </c>
     </row>
@@ -4543,19 +4543,19 @@
         <v>10</v>
       </c>
       <c r="B105">
-        <f t="shared" si="2"/>
-        <v>-68.448993738837956</v>
+        <f t="shared" si="6"/>
+        <v>-66.952784980867207</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.503791242029251</v>
       </c>
       <c r="D105">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A105-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A105)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.7473760740314549</v>
       </c>
       <c r="E105">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A105-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A105)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.80363018713059664</v>
       </c>
     </row>
@@ -4564,19 +4564,19 @@
         <v>10.1</v>
       </c>
       <c r="B106">
-        <f t="shared" si="2"/>
-        <v>-68.460208755438174</v>
+        <f t="shared" si="6"/>
+        <v>-66.996074571010297</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.535865815572123</v>
       </c>
       <c r="D106">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A106-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A106)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.74197194686140255</v>
       </c>
       <c r="E106">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A106-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A106)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.79781929770043269</v>
       </c>
     </row>
@@ -4585,19 +4585,19 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B107">
-        <f t="shared" si="2"/>
-        <v>-68.471342678492533</v>
+        <f t="shared" si="6"/>
+        <v>-67.038444856451392</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.567102177958859</v>
       </c>
       <c r="D107">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A107-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A107)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.73660689585592765</v>
       </c>
       <c r="E107">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A107-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A107)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.79205042565153494</v>
       </c>
     </row>
@@ -4606,19 +4606,19 @@
         <v>10.3</v>
       </c>
       <c r="B108">
-        <f t="shared" si="2"/>
-        <v>-68.482396094372305</v>
+        <f t="shared" si="6"/>
+        <v>-67.079924113112099</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.597528018739794</v>
       </c>
       <c r="D108">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A108-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A108)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.73128063846308577</v>
       </c>
       <c r="E108">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A108-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A108)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.78632326716460832</v>
       </c>
     </row>
@@ -4627,19 +4627,19 @@
         <v>10.4</v>
       </c>
       <c r="B109">
-        <f t="shared" si="2"/>
-        <v>-68.493369585208768</v>
+        <f t="shared" si="6"/>
+        <v>-67.12053945278447</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.627169867575702</v>
       </c>
       <c r="D109">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A109-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A109)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.72599289417401014</v>
       </c>
       <c r="E109">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A109-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A109)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.78063752061721525</v>
       </c>
     </row>
@@ -4648,19 +4648,19 @@
         <v>10.5</v>
       </c>
       <c r="B110">
-        <f t="shared" si="2"/>
-        <v>-68.504263728923974</v>
+        <f t="shared" si="6"/>
+        <v>-67.160316883419839</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.656053154495865</v>
       </c>
       <c r="D110">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A110-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A110)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.72074338450813669</v>
       </c>
       <c r="E110">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A110-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A110)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.77499288656788889</v>
       </c>
     </row>
@@ -4669,19 +4669,19 @@
         <v>10.6</v>
       </c>
       <c r="B111">
-        <f t="shared" si="2"/>
-        <v>-68.515079099261101</v>
+        <f t="shared" si="6"/>
+        <v>-67.199281365645987</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.684202266384887</v>
       </c>
       <c r="D111">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A111-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A111)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.71553183299853884</v>
       </c>
       <c r="E111">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A111-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A111)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.76938906774036431</v>
       </c>
     </row>
@@ -4690,19 +4690,19 @@
         <v>10.7</v>
       </c>
       <c r="B112">
-        <f t="shared" si="2"/>
-        <v>-68.525816265814711</v>
+        <f t="shared" si="6"/>
+        <v>-67.237456865790264</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.711640599975553</v>
       </c>
       <c r="D112">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A112-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A112)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.71035796517736738</v>
       </c>
       <c r="E112">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A112-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A112)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.76382576900792198</v>
       </c>
     </row>
@@ -4711,19 +4711,19 @@
         <v>10.8</v>
       </c>
       <c r="B113">
-        <f t="shared" si="2"/>
-        <v>-68.536475794060763</v>
+        <f t="shared" si="6"/>
+        <v>-67.27486640566211</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.738390611601346</v>
       </c>
       <c r="D113">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A113-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A113)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.70522150856139521</v>
       </c>
       <c r="E113">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A113-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A113)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.75830269737784428</v>
       </c>
     </row>
@@ -4732,19 +4732,19 @@
         <v>10.9</v>
       </c>
       <c r="B114">
-        <f t="shared" si="2"/>
-        <v>-68.547058245386353</v>
+        <f t="shared" si="6"/>
+        <v>-67.311532109327644</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.764473863941291</v>
       </c>
       <c r="D114">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A114-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A114)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.70012219263766717</v>
       </c>
       <c r="E114">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A114-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A114)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.75281956197598621</v>
       </c>
     </row>
@@ -4753,19 +4753,19 @@
         <v>11</v>
       </c>
       <c r="B115">
-        <f t="shared" si="2"/>
-        <v>-68.557564177119303</v>
+        <f t="shared" si="6"/>
+        <v>-67.347475247089605</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.789911069970302</v>
       </c>
       <c r="D115">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A115-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A115)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.69505974884925315</v>
       </c>
       <c r="E115">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A115-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A115)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.7473760740314549</v>
       </c>
     </row>
@@ -4774,37 +4774,37 @@
         <v>11.1</v>
       </c>
       <c r="B116">
-        <f t="shared" si="2"/>
-        <v>-68.567994142557495</v>
+        <f t="shared" si="6"/>
+        <v>-67.382716276868621</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.814722134311126</v>
       </c>
       <c r="D116">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A116-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A116)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.69003391058110419</v>
       </c>
       <c r="E116">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A116-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A116)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.74197194686140255</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B117">
-        <f t="shared" si="2"/>
-        <v>-70.079254350650842</v>
+        <f t="shared" si="6"/>
+        <v>-67.461970627519463</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-67.382716276868621</v>
       </c>
       <c r="D117">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A117-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A117)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A117-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A117)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>-7.9254350650838551E-2</v>
       </c>
     </row>
@@ -4813,19 +4813,19 @@
         <v>11.2</v>
       </c>
       <c r="B118">
-        <f t="shared" si="2"/>
-        <v>-68.578348690998055</v>
+        <f t="shared" si="6"/>
+        <v>-67.452433528705214</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.874084837707159</v>
       </c>
       <c r="D118">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A118-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A118)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.68504441314601272</v>
       </c>
       <c r="E118">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A118-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A118)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.73660689585592765</v>
       </c>
     </row>
@@ -4834,19 +4834,19 @@
         <v>11.3</v>
       </c>
       <c r="B119">
-        <f t="shared" si="2"/>
-        <v>-68.588628367766233</v>
+        <f t="shared" si="6"/>
+        <v>-67.466654238099949</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.878025870333715</v>
       </c>
       <c r="D119">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A119-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A119)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.68009099377066995</v>
       </c>
       <c r="E119">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A119-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A119)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.73128063846308577</v>
       </c>
     </row>
@@ -4855,19 +4855,19 @@
         <v>11.4</v>
       </c>
       <c r="B120">
-        <f t="shared" si="2"/>
-        <v>-68.598833714244151</v>
+        <f t="shared" si="6"/>
+        <v>-67.491190014138851</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.892356299894701</v>
       </c>
       <c r="D120">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A120-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A120)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.67517339158182954</v>
       </c>
       <c r="E120">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A120-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A120)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.72599289417401014</v>
       </c>
     </row>
@@ -4876,19 +4876,19 @@
         <v>11.5</v>
       </c>
       <c r="B121">
-        <f t="shared" si="2"/>
-        <v>-68.608965267899293</v>
+        <f t="shared" si="6"/>
+        <v>-67.51998081876458</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.911015550865287</v>
       </c>
       <c r="D121">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A121-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A121)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.67029134759256714</v>
       </c>
       <c r="E121">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A121-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A121)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.72074338450813669</v>
       </c>
     </row>
@@ -4897,19 +4897,19 @@
         <v>11.6</v>
       </c>
       <c r="B122">
-        <f t="shared" si="2"/>
-        <v>-68.619023562312819</v>
+        <f t="shared" si="6"/>
+        <v>-67.550320034439281</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.931296472126462</v>
       </c>
       <c r="D122">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A122-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A122)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.66544460468864119</v>
       </c>
       <c r="E122">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A122-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A122)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.71553183299853884</v>
       </c>
     </row>
@@ -4918,19 +4918,19 @@
         <v>11.7</v>
       </c>
       <c r="B123">
-        <f t="shared" si="2"/>
-        <v>-68.629009127207681</v>
+        <f t="shared" si="6"/>
+        <v>-67.581012588058371</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.95200346085069</v>
       </c>
       <c r="D123">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A123-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A123)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.66063290761495186</v>
       </c>
       <c r="E123">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A123-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A123)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="9"/>
         <v>0.71035796517736738</v>
       </c>
     </row>
@@ -4939,19 +4939,19 @@
         <v>11.8</v>
       </c>
       <c r="B124">
-        <f t="shared" si="2"/>
-        <v>-68.63892248847651</v>
+        <f t="shared" si="6"/>
+        <v>-67.611539426787971</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.972616938311461</v>
       </c>
       <c r="D124">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A124-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A124)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D124:F143" si="10">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A124-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A124)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.65585600296209767</v>
       </c>
       <c r="E124">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A124-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A124)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.70522150856139521</v>
       </c>
     </row>
@@ -4960,19 +4960,19 @@
         <v>11.9</v>
       </c>
       <c r="B125">
-        <f t="shared" si="2"/>
-        <v>-68.648764168209311</v>
+        <f t="shared" si="6"/>
+        <v>-67.64168140117323</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-68.992917232963919</v>
       </c>
       <c r="D125">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A125-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A125)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.65111363915303055</v>
       </c>
       <c r="E125">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A125-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A125)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.70012219263766717</v>
       </c>
     </row>
@@ -4981,19 +4981,19 @@
         <v>12</v>
       </c>
       <c r="B126">
-        <f t="shared" si="2"/>
-        <v>-68.658534684720948</v>
+        <f t="shared" si="6"/>
+        <v>-67.67135125097532</v>
       </c>
       <c r="C126">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-69.012816566254372</v>
       </c>
       <c r="D126">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A126-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A126)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.64640556642980551</v>
       </c>
       <c r="E126">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A126-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A126)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.69505974884925315</v>
       </c>
     </row>
@@ -5002,19 +5002,19 @@
         <v>12.1</v>
       </c>
       <c r="B127">
-        <f t="shared" si="2"/>
-        <v>-68.668234552578468</v>
+        <f t="shared" si="6"/>
+        <v>-67.700519130121506</v>
       </c>
       <c r="C127">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-69.032284577543038</v>
       </c>
       <c r="D127">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A127-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A127)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.64173153684042705</v>
       </c>
       <c r="E127">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A127-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A127)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.69003391058110419</v>
       </c>
     </row>
@@ -5023,19 +5023,19 @@
         <v>12.2</v>
       </c>
       <c r="B128">
-        <f t="shared" si="2"/>
-        <v>-68.677864282628192</v>
+        <f t="shared" si="6"/>
+        <v>-67.729179851892312</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-69.051315569264119</v>
       </c>
       <c r="D128">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A128-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A128)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.63709130422579185</v>
       </c>
       <c r="E128">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A128-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A128)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.68504441314601272</v>
       </c>
     </row>
@@ -5044,19 +5044,19 @@
         <v>12.3</v>
       </c>
       <c r="B129">
-        <f t="shared" si="2"/>
-        <v>-68.687424382022598</v>
+        <f t="shared" si="6"/>
+        <v>-67.757338598648943</v>
       </c>
       <c r="C129">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-69.069914216626344</v>
       </c>
       <c r="D129">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A129-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A129)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.63248462420672302</v>
       </c>
       <c r="E129">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A129-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A129)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.68009099377066995</v>
       </c>
     </row>
@@ -5065,19 +5065,19 @@
         <v>12.4</v>
       </c>
       <c r="B130">
-        <f t="shared" si="2"/>
-        <v>-68.696915354247068</v>
+        <f t="shared" si="6"/>
+        <v>-67.785004740491829</v>
       </c>
       <c r="C130">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-69.088089386244761</v>
       </c>
       <c r="D130">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A130-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A130)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.6279112541711015</v>
       </c>
       <c r="E130">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A130-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A130)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.67517339158182954</v>
       </c>
     </row>
@@ -5086,19 +5086,19 @@
         <v>12.5</v>
       </c>
       <c r="B131">
-        <f t="shared" si="2"/>
-        <v>-68.706337699146346</v>
+        <f t="shared" si="6"/>
+        <v>-67.812189187430462</v>
       </c>
       <c r="C131">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-69.105851488284117</v>
       </c>
       <c r="D131">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A131-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A131)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.62337095326108749</v>
       </c>
       <c r="E131">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A131-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A131)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.67029134759256714</v>
       </c>
     </row>
@@ -5107,19 +5107,19 @@
         <v>12.6</v>
       </c>
       <c r="B132">
-        <f t="shared" si="2"/>
-        <v>-68.715691912950916</v>
+        <f t="shared" si="6"/>
+        <v>-67.838903269215578</v>
       </c>
       <c r="C132">
-        <f t="shared" si="3"/>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-69.123211356264662</v>
       </c>
       <c r="D132">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A132-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A132)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.61886348236043631</v>
       </c>
       <c r="E132">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A132-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A132)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.66544460468864119</v>
       </c>
     </row>
@@ -5128,19 +5128,19 @@
         <v>12.7</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133:B192" si="4">SUM(C133:G133)</f>
-        <v>-68.724978488303137</v>
+        <f t="shared" ref="B133:B192" si="11">SUM(C133:G133)</f>
+        <v>-67.865158270308726</v>
       </c>
       <c r="C133">
-        <f t="shared" ref="C133:C192" si="5">($K$7-$L$7)*$M$7^A133+$L$7</f>
-        <v>-70</v>
+        <f t="shared" si="7"/>
+        <v>-69.140179782005589</v>
       </c>
       <c r="D133">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A133-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A133)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.6143886040819051</v>
       </c>
       <c r="E133">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A133-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A133)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.66063290761495186</v>
       </c>
     </row>
@@ -5149,19 +5149,19 @@
         <v>12.8</v>
       </c>
       <c r="B134">
-        <f t="shared" si="4"/>
-        <v>-68.734197914283158</v>
+        <f t="shared" si="11"/>
+        <v>-67.890965243402704</v>
       </c>
       <c r="C134">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" ref="C134:C192" si="12">(B133-$L$7)*$M$7^A134+$L$7</f>
+        <v>-69.156767329119546</v>
       </c>
       <c r="D134">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A134-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A134)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.60994608275475082</v>
       </c>
       <c r="E134">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A134-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A134)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.65585600296209767</v>
       </c>
     </row>
@@ -5170,19 +5170,19 @@
         <v>12.9</v>
       </c>
       <c r="B135">
-        <f t="shared" si="4"/>
-        <v>-68.743350676434659</v>
+        <f t="shared" si="11"/>
+        <v>-67.916334940227031</v>
       </c>
       <c r="C135">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.172984263792372</v>
       </c>
       <c r="D135">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A135-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A135)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.60553568441231842</v>
       </c>
       <c r="E135">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A135-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A135)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.65111363915303055</v>
       </c>
     </row>
@@ -5191,19 +5191,19 @@
         <v>13</v>
       </c>
       <c r="B136">
-        <f t="shared" si="4"/>
-        <v>-68.752437256790472</v>
+        <f t="shared" si="11"/>
+        <v>-67.941277791126936</v>
       </c>
       <c r="C136">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.188840534336464</v>
       </c>
       <c r="D136">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A136-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A136)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.60115717677971925</v>
       </c>
       <c r="E136">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A136-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A136)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.64640556642980551</v>
       </c>
     </row>
@@ -5212,19 +5212,19 @@
         <v>13.1</v>
       </c>
       <c r="B137">
-        <f t="shared" si="4"/>
-        <v>-68.761458133897975</v>
+        <f t="shared" si="11"/>
+        <v>-67.965803904546519</v>
       </c>
       <c r="C137">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.204345770648544</v>
       </c>
       <c r="D137">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A137-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A137)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.59681032926159716</v>
       </c>
       <c r="E137">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A137-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A137)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.64173153684042705</v>
       </c>
     </row>
@@ -5233,19 +5233,19 @@
         <v>13.2</v>
       </c>
       <c r="B138">
-        <f t="shared" si="4"/>
-        <v>-68.770413782844216</v>
+        <f t="shared" si="11"/>
+        <v>-67.989923074357549</v>
       </c>
       <c r="C138">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.219509291513333</v>
       </c>
       <c r="D138">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A138-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A138)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.59249491292998646</v>
       </c>
       <c r="E138">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A138-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A138)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.63709130422579185</v>
       </c>
     </row>
@@ -5254,19 +5254,19 @@
         <v>13.3</v>
       </c>
       <c r="B139">
-        <f t="shared" si="4"/>
-        <v>-68.779304675281026</v>
+        <f t="shared" si="11"/>
+        <v>-68.013644790047749</v>
       </c>
       <c r="C139">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.234340114766724</v>
       </c>
       <c r="D139">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A139-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A139)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.58821070051225244</v>
       </c>
       <c r="E139">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A139-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A139)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.63248462420672302</v>
       </c>
     </row>
@@ -5275,19 +5275,19 @@
         <v>13.4</v>
       </c>
       <c r="B140">
-        <f t="shared" si="4"/>
-        <v>-68.788131279449786</v>
+        <f t="shared" si="11"/>
+        <v>-68.036978247733288</v>
       </c>
       <c r="C140">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.248846968283502</v>
       </c>
       <c r="D140">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A140-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A140)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.58395746637912449</v>
       </c>
       <c r="E140">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A140-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A140)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.6279112541711015</v>
       </c>
     </row>
@@ -5296,19 +5296,19 @@
         <v>13.5</v>
       </c>
       <c r="B141">
-        <f t="shared" si="4"/>
-        <v>-68.7968940602061</v>
+        <f t="shared" si="11"/>
+        <v>-68.059932361182064</v>
       </c>
       <c r="C141">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.263038300975964</v>
       </c>
       <c r="D141">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A141-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A141)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.5797349865328113</v>
       </c>
       <c r="E141">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A141-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A141)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.62337095326108749</v>
       </c>
     </row>
@@ -5317,19 +5317,19 @@
         <v>13.6</v>
       </c>
       <c r="B142">
-        <f t="shared" si="4"/>
-        <v>-68.805593479044362</v>
+        <f t="shared" si="11"/>
+        <v>-68.082515772535331</v>
       </c>
       <c r="C142">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.276922293490969</v>
       </c>
       <c r="D142">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A142-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A142)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.57554303859520584</v>
       </c>
       <c r="E142">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A142-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A142)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.61886348236043631</v>
       </c>
     </row>
@@ -5338,19 +5338,19 @@
         <v>13.7</v>
       </c>
       <c r="B143">
-        <f t="shared" si="4"/>
-        <v>-68.814229994121916</v>
+        <f t="shared" si="11"/>
+        <v>-68.104736862617898</v>
       </c>
       <c r="C143">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.290506868495982</v>
       </c>
       <c r="D143">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A143-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A143)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.57138140179617181</v>
       </c>
       <c r="E143">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A143-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A143)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="10"/>
         <v>0.6143886040819051</v>
       </c>
     </row>
@@ -5359,19 +5359,19 @@
         <v>13.8</v>
       </c>
       <c r="B144">
-        <f t="shared" si="4"/>
-        <v>-68.822804060283332</v>
+        <f t="shared" si="11"/>
+        <v>-68.126603760809147</v>
       </c>
       <c r="C144">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.303799700525815</v>
       </c>
       <c r="D144">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A144-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A144)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D144:F163" si="13">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A144-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A144)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.56724985696191821</v>
       </c>
       <c r="E144">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A144-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A144)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.60994608275475082</v>
       </c>
     </row>
@@ -5380,19 +5380,19 @@
         <v>13.9</v>
       </c>
       <c r="B145">
-        <f t="shared" si="4"/>
-        <v>-68.831316129084229</v>
+        <f t="shared" si="11"/>
+        <v>-68.148124354478142</v>
       </c>
       <c r="C145">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.316808225393913</v>
       </c>
       <c r="D145">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A145-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A145)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.56314818650345599</v>
       </c>
       <c r="E145">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A145-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A145)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.60553568441231842</v>
       </c>
     </row>
@@ -5401,19 +5401,19 @@
         <v>14</v>
       </c>
       <c r="B146">
-        <f t="shared" si="4"/>
-        <v>-68.839766648815143</v>
+        <f t="shared" si="11"/>
+        <v>-68.169306297998375</v>
       </c>
       <c r="C146">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.329539649183232</v>
       </c>
       <c r="D146">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A146-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A146)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.5590761744051389</v>
       </c>
       <c r="E146">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A146-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A146)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.60115717677971925</v>
       </c>
     </row>
@@ -5422,19 +5422,19 @@
         <v>14.1</v>
       </c>
       <c r="B147">
-        <f t="shared" si="4"/>
-        <v>-68.848156064525114</v>
+        <f t="shared" si="11"/>
+        <v>-68.190157021360832</v>
       </c>
       <c r="C147">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.342000956835719</v>
       </c>
       <c r="D147">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A147-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A147)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.55503360621328546</v>
       </c>
       <c r="E147">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A147-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A147)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.59681032926159716</v>
       </c>
     </row>
@@ -5443,19 +5443,19 @@
         <v>14.2</v>
       </c>
       <c r="B148">
-        <f t="shared" si="4"/>
-        <v>-68.856484818045118</v>
+        <f t="shared" si="11"/>
+        <v>-68.210683738405592</v>
       </c>
       <c r="C148">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.354198920360474</v>
       </c>
       <c r="D148">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A148-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A148)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.55102026902488743</v>
       </c>
       <c r="E148">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A148-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A148)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.59249491292998646</v>
       </c>
     </row>
@@ -5464,19 +5464,19 @@
         <v>14.3</v>
       </c>
       <c r="B149">
-        <f t="shared" si="4"/>
-        <v>-68.864753348011362</v>
+        <f t="shared" si="11"/>
+        <v>-68.230893454690971</v>
       </c>
       <c r="C149">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.366140106679609</v>
       </c>
       <c r="D149">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A149-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A149)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.54703595147639472</v>
       </c>
       <c r="E149">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A149-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A149)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.58821070051225244</v>
       </c>
     </row>
@@ -5485,19 +5485,19 @@
         <v>14.4</v>
       </c>
       <c r="B150">
-        <f t="shared" si="4"/>
-        <v>-68.87296208988829</v>
+        <f t="shared" si="11"/>
+        <v>-68.250792975018641</v>
       </c>
       <c r="C150">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.377830885130351</v>
       </c>
       <c r="D150">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A150-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A150)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.54308044373258579</v>
       </c>
       <c r="E150">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A150-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A150)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.58395746637912449</v>
       </c>
     </row>
@@ -5506,19 +5506,19 @@
         <v>14.5</v>
       </c>
       <c r="B151">
-        <f t="shared" si="4"/>
-        <v>-68.881111475991673</v>
+        <f t="shared" si="11"/>
+        <v>-68.270388910632704</v>
       </c>
       <c r="C151">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.389277434641031</v>
       </c>
       <c r="D151">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A151-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A151)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.53915353747551464</v>
       </c>
       <c r="E151">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A151-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A151)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.5797349865328113</v>
       </c>
     </row>
@@ -5527,19 +5527,19 @@
         <v>14.6</v>
       </c>
       <c r="B152">
-        <f t="shared" si="4"/>
-        <v>-68.889201935511252</v>
+        <f t="shared" si="11"/>
+        <v>-68.289687686108437</v>
       </c>
       <c r="C152">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.400485750597184</v>
       </c>
       <c r="D152">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A152-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A152)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.53525502589354146</v>
       </c>
       <c r="E152">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A152-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A152)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.57554303859520584</v>
       </c>
     </row>
@@ -5548,19 +5548,19 @@
         <v>14.7</v>
       </c>
       <c r="B153">
-        <f t="shared" si="4"/>
-        <v>-68.897233894533386</v>
+        <f t="shared" si="11"/>
+        <v>-68.308695545946989</v>
       </c>
       <c r="C153">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.411461651413603</v>
       </c>
       <c r="D153">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A153-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A153)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.53138470367043988</v>
       </c>
       <c r="E153">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A153-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A153)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.57138140179617181</v>
       </c>
     </row>
@@ -5569,19 +5569,19 @@
         <v>14.8</v>
       </c>
       <c r="B154">
-        <f t="shared" si="4"/>
-        <v>-68.905207776063492</v>
+        <f t="shared" si="11"/>
+        <v>-68.327418560890251</v>
       </c>
       <c r="C154">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.42221078482676</v>
       </c>
       <c r="D154">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A154-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A154)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.52754236697458412</v>
       </c>
       <c r="E154">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A154-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A154)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.56724985696191821</v>
       </c>
     </row>
@@ -5590,19 +5590,19 @@
         <v>14.9</v>
       </c>
       <c r="B155">
-        <f t="shared" si="4"/>
-        <v>-68.913124000048327</v>
+        <f t="shared" si="11"/>
+        <v>-68.345862633969958</v>
       </c>
       <c r="C155">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.43273863392163</v>
       </c>
       <c r="D155">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A155-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A155)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.52372781344821429</v>
       </c>
       <c r="E155">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A155-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A155)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.56314818650345599</v>
       </c>
     </row>
@@ -5611,19 +5611,19 @@
         <v>15</v>
       </c>
       <c r="B156">
-        <f t="shared" si="4"/>
-        <v>-68.92098298339809</v>
+        <f t="shared" si="11"/>
+        <v>-68.364033506303983</v>
       </c>
       <c r="C156">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.443050522905892</v>
       </c>
       <c r="D156">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A156-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A156)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.51994084219677916</v>
       </c>
       <c r="E156">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A156-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A156)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.5590761744051389</v>
       </c>
     </row>
@@ -5632,19 +5632,19 @@
         <v>15.1</v>
       </c>
       <c r="B157">
-        <f t="shared" si="4"/>
-        <v>-68.928785140008358</v>
+        <f t="shared" si="11"/>
+        <v>-68.381936762652188</v>
       </c>
       <c r="C157">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.45315162264383</v>
       </c>
       <c r="D157">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A157-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A157)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.51618125377835544</v>
       </c>
       <c r="E157">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A157-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A157)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.55503360621328546</v>
       </c>
     </row>
@@ -5653,19 +5653,19 @@
         <v>15.2</v>
       </c>
       <c r="B158">
-        <f t="shared" si="4"/>
-        <v>-68.936530880781959</v>
+        <f t="shared" si="11"/>
+        <v>-68.399577836743504</v>
       </c>
       <c r="C158">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.463046955961531</v>
       </c>
       <c r="D158">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A158-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A158)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.51244885019314523</v>
       </c>
       <c r="E158">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A158-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A158)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.55102026902488743</v>
       </c>
     </row>
@@ -5674,19 +5674,19 @@
         <v>15.3</v>
       </c>
       <c r="B159">
-        <f t="shared" si="4"/>
-        <v>-68.944220613650558</v>
+        <f t="shared" si="11"/>
+        <v>-68.416962016385114</v>
       </c>
       <c r="C159">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.472741402734556</v>
       </c>
       <c r="D159">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A159-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A159)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.50874343487304718</v>
       </c>
       <c r="E159">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A159-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A159)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.54703595147639472</v>
       </c>
     </row>
@@ -5695,19 +5695,19 @@
         <v>15.4</v>
       </c>
       <c r="B160">
-        <f t="shared" si="4"/>
-        <v>-68.951854743596101</v>
+        <f t="shared" si="11"/>
+        <v>-68.434094448364277</v>
       </c>
       <c r="C160">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.482239704768176</v>
       </c>
       <c r="D160">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A160-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A160)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.50506481267130476</v>
       </c>
       <c r="E160">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A160-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A160)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.54308044373258579</v>
       </c>
     </row>
@@ -5716,19 +5716,19 @@
         <v>15.5</v>
       </c>
       <c r="B161">
-        <f t="shared" si="4"/>
-        <v>-68.959433672672262</v>
+        <f t="shared" si="11"/>
+        <v>-68.45098014315252</v>
       </c>
       <c r="C161">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.491546470480259</v>
       </c>
       <c r="D161">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A161-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A161)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.50141278985222859</v>
       </c>
       <c r="E161">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A161-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A161)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.53915353747551464</v>
       </c>
     </row>
@@ -5737,19 +5737,19 @@
         <v>15.6</v>
       </c>
       <c r="B162">
-        <f t="shared" si="4"/>
-        <v>-68.966957800025455</v>
+        <f t="shared" si="11"/>
+        <v>-68.467623979421461</v>
       </c>
       <c r="C162">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.500666179396006</v>
       </c>
       <c r="D162">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A162-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A162)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.49778717408099354</v>
       </c>
       <c r="E162">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A162-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A162)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.53525502589354146</v>
       </c>
     </row>
@@ -5758,19 +5758,19 @@
         <v>15.7</v>
       </c>
       <c r="B163">
-        <f t="shared" si="4"/>
-        <v>-68.974427521916056</v>
+        <f t="shared" si="11"/>
+        <v>-68.484030708379265</v>
       </c>
       <c r="C163">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.50960318646321</v>
       </c>
       <c r="D163">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A163-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A163)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.49418777441350903</v>
       </c>
       <c r="E163">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A163-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A163)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="13"/>
         <v>0.53138470367043988</v>
       </c>
     </row>
@@ -5779,19 +5779,19 @@
         <v>15.8</v>
       </c>
       <c r="B164">
-        <f t="shared" si="4"/>
-        <v>-68.981843231739049</v>
+        <f t="shared" si="11"/>
+        <v>-68.500204957935694</v>
       </c>
       <c r="C164">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.518361726196645</v>
       </c>
       <c r="D164">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A164-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A164)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D164:F183" si="14">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A164-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A164)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.49061440128636319</v>
       </c>
       <c r="E164">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A164-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A164)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.52754236697458412</v>
       </c>
     </row>
@@ -5800,19 +5800,19 @@
         <v>15.9</v>
       </c>
       <c r="B165">
-        <f t="shared" si="4"/>
-        <v>-68.989205320044945</v>
+        <f t="shared" si="11"/>
+        <v>-68.516151236704061</v>
       </c>
       <c r="C165">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.526945916659116</v>
       </c>
       <c r="D165">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A165-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A165)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.48706686650683934</v>
       </c>
       <c r="E165">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A165-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A165)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.52372781344821429</v>
       </c>
     </row>
@@ -5821,19 +5821,19 @@
         <v>16</v>
       </c>
       <c r="B166">
-        <f t="shared" si="4"/>
-        <v>-68.996514174560218</v>
+        <f t="shared" si="11"/>
+        <v>-68.531873937847166</v>
       </c>
       <c r="C166">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.535359763286948</v>
       </c>
       <c r="D166">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A166-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A166)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.48354498324300466</v>
       </c>
       <c r="E166">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A166-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A166)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.51994084219677916</v>
       </c>
     </row>
@@ -5842,19 +5842,19 @@
         <v>16.100000000000001</v>
       </c>
       <c r="B167">
-        <f t="shared" si="4"/>
-        <v>-69.003770180207766</v>
+        <f t="shared" si="11"/>
+        <v>-68.547377342774553</v>
       </c>
       <c r="C167">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.543607162566786</v>
       </c>
       <c r="D167">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A167-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A167)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.48004856601387064</v>
       </c>
       <c r="E167">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A167-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A167)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.51618125377835544</v>
       </c>
     </row>
@@ -5863,37 +5863,37 @@
         <v>16.2</v>
       </c>
       <c r="B168">
-        <f t="shared" si="4"/>
-        <v>-69.010973719127236</v>
+        <f t="shared" si="11"/>
+        <v>-68.562665624697672</v>
       </c>
       <c r="C168">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.551691905570451</v>
       </c>
       <c r="D168">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A168-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A168)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.47657743067962516</v>
       </c>
       <c r="E168">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A168-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A168)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.51244885019314523</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B169">
-        <f t="shared" si="4"/>
-        <v>-70.079254350650842</v>
+        <f t="shared" si="11"/>
+        <v>-68.641919975348515</v>
       </c>
       <c r="C169">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-68.562665624697672</v>
       </c>
       <c r="D169">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A169-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A169)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A169-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A169)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>-7.9254350650838551E-2</v>
       </c>
     </row>
@@ -5902,19 +5902,19 @@
         <v>16.3</v>
       </c>
       <c r="B170">
-        <f t="shared" si="4"/>
-        <v>-69.018125170695015</v>
+        <f t="shared" si="11"/>
+        <v>-68.602025451354152</v>
       </c>
       <c r="C170">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.583900280659137</v>
       </c>
       <c r="D170">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A170-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A170)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.47313139443193392</v>
       </c>
       <c r="E170">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A170-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A170)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.50874343487304718</v>
       </c>
     </row>
@@ -5923,19 +5923,19 @@
         <v>16.399999999999999</v>
       </c>
       <c r="B171">
-        <f t="shared" si="4"/>
-        <v>-69.025224911544385</v>
+        <f t="shared" si="11"/>
+        <v>-68.599999097667222</v>
       </c>
       <c r="C171">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.574774186122838</v>
       </c>
       <c r="D171">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A171-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A171)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.46971027578431346</v>
       </c>
       <c r="E171">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A171-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A171)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.50506481267130487</v>
       </c>
     </row>
@@ -5944,19 +5944,19 @@
         <v>16.5</v>
       </c>
       <c r="B172">
-        <f t="shared" si="4"/>
-        <v>-69.032273315585201</v>
+        <f t="shared" si="11"/>
+        <v>-68.60951031980818</v>
       </c>
       <c r="C172">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.57723700422298</v>
       </c>
       <c r="D172">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A172-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A172)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.46631389456257272</v>
       </c>
       <c r="E172">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A172-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A172)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.50141278985222859</v>
       </c>
     </row>
@@ -5965,19 +5965,19 @@
         <v>16.600000000000001</v>
       </c>
       <c r="B173">
-        <f t="shared" si="4"/>
-        <v>-69.039270754023676</v>
+        <f t="shared" si="11"/>
+        <v>-68.622416041058074</v>
       </c>
       <c r="C173">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.583145287034398</v>
       </c>
       <c r="D173">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A173-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A173)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.46294207189532399</v>
       </c>
       <c r="E173">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A173-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A173)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.49778717408099343</v>
       </c>
     </row>
@@ -5986,19 +5986,19 @@
         <v>16.7</v>
       </c>
       <c r="B174">
-        <f t="shared" si="4"/>
-        <v>-69.046217595381933</v>
+        <f t="shared" si="11"/>
+        <v>-68.636218104044161</v>
       </c>
       <c r="C174">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.590000508662229</v>
       </c>
       <c r="D174">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A174-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A174)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.45959463020456337</v>
       </c>
       <c r="E174">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A174-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A174)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.49418777441350903</v>
       </c>
     </row>
@@ -6007,19 +6007,19 @@
         <v>16.8</v>
       </c>
       <c r="B175">
-        <f t="shared" si="4"/>
-        <v>-69.053114205517318</v>
+        <f t="shared" si="11"/>
+        <v>-68.650157435539157</v>
       </c>
       <c r="C175">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.597043230021839</v>
       </c>
       <c r="D175">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A175-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A175)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.45627139319631771</v>
       </c>
       <c r="E175">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A175-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A175)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.49061440128636319</v>
       </c>
     </row>
@@ -6028,19 +6028,19 @@
         <v>16.899999999999999</v>
       </c>
       <c r="B176">
-        <f t="shared" si="4"/>
-        <v>-69.059960947641798</v>
+        <f t="shared" si="11"/>
+        <v>-68.6640067520744</v>
       </c>
       <c r="C176">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.604045804432602</v>
       </c>
       <c r="D176">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A176-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A176)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.45297218585136068</v>
       </c>
       <c r="E176">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A176-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A176)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.48706686650683934</v>
       </c>
     </row>
@@ -6049,19 +6049,19 @@
         <v>17</v>
       </c>
       <c r="B177">
-        <f t="shared" si="4"/>
-        <v>-69.066758182341005</v>
+        <f t="shared" si="11"/>
+        <v>-68.677700147643819</v>
       </c>
       <c r="C177">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.610941965302814</v>
       </c>
       <c r="D177">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A177-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A177)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.4496968344159944</v>
       </c>
       <c r="E177">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A177-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A177)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.48354498324300466</v>
       </c>
     </row>
@@ -6070,19 +6070,19 @@
         <v>17.100000000000001</v>
       </c>
       <c r="B178">
-        <f t="shared" si="4"/>
-        <v>-69.073506267593217</v>
+        <f t="shared" si="11"/>
+        <v>-68.691220288674927</v>
       </c>
       <c r="C178">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.61771402108171</v>
       </c>
       <c r="D178">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A178-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A178)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.44644516639289961</v>
       </c>
       <c r="E178">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A178-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A178)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.48004856601387064</v>
       </c>
     </row>
@@ -6091,19 +6091,19 @@
         <v>17.2</v>
       </c>
       <c r="B179">
-        <f t="shared" si="4"/>
-        <v>-69.080205558788322</v>
+        <f t="shared" si="11"/>
+        <v>-68.704564315682859</v>
       </c>
       <c r="C179">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.624358756894537</v>
       </c>
       <c r="D179">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A179-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A179)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.44321701053205143</v>
       </c>
       <c r="E179">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A179-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A179)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.47657743067962516</v>
       </c>
     </row>
@@ -6112,19 +6112,19 @@
         <v>17.3</v>
       </c>
       <c r="B180">
-        <f t="shared" si="4"/>
-        <v>-69.086856408746371</v>
+        <f t="shared" si="11"/>
+        <v>-68.717733613445446</v>
       </c>
       <c r="C180">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.630877204699075</v>
       </c>
       <c r="D180">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A180-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A180)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.44001219682169862</v>
       </c>
       <c r="E180">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A180-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A180)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.47313139443193392</v>
       </c>
     </row>
@@ -6133,19 +6133,19 @@
         <v>17.399999999999999</v>
       </c>
       <c r="B181">
-        <f t="shared" si="4"/>
-        <v>-69.093459167736285</v>
+        <f t="shared" si="11"/>
+        <v>-68.73073076572561</v>
       </c>
       <c r="C181">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.637271597989326</v>
       </c>
       <c r="D181">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A181-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A181)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.4368305564794116</v>
       </c>
       <c r="E181">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A181-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A181)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.46971027578431346</v>
       </c>
     </row>
@@ -6154,19 +6154,19 @@
         <v>17.5</v>
       </c>
       <c r="B182">
-        <f t="shared" si="4"/>
-        <v>-69.100014183494238</v>
+        <f t="shared" si="11"/>
+        <v>-68.743558656485035</v>
       </c>
       <c r="C182">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.643544472990797</v>
       </c>
       <c r="D182">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A182-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A182)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.43367192194319248</v>
       </c>
       <c r="E182">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A182-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A182)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.46631389456257272</v>
       </c>
     </row>
@@ -6175,19 +6175,19 @@
         <v>17.600000000000001</v>
       </c>
       <c r="B183">
-        <f t="shared" si="4"/>
-        <v>-69.106521801242025</v>
+        <f t="shared" si="11"/>
+        <v>-68.756220207598261</v>
       </c>
       <c r="C183">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.649698406356237</v>
       </c>
       <c r="D183">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A183-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A183)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.43053612686265136</v>
       </c>
       <c r="E183">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A183-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A183)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="14"/>
         <v>0.46294207189532399</v>
       </c>
     </row>
@@ -6196,19 +6196,19 @@
         <v>17.7</v>
       </c>
       <c r="B184">
-        <f t="shared" si="4"/>
-        <v>-69.112982363705186</v>
+        <f t="shared" si="11"/>
+        <v>-68.768718303872703</v>
       </c>
       <c r="C184">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.655735940167517</v>
       </c>
       <c r="D184">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A184-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A184)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" ref="D184:F192" si="15">SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A184-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A184)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
         <v>0.42742300609024403</v>
       </c>
       <c r="E184">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A184-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A184)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.45959463020456337</v>
       </c>
     </row>
@@ -6217,19 +6217,19 @@
         <v>17.8</v>
       </c>
       <c r="B185">
-        <f t="shared" si="4"/>
-        <v>-69.119396211131104</v>
+        <f t="shared" si="11"/>
+        <v>-68.781055772745276</v>
       </c>
       <c r="C185">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.661659561614172</v>
       </c>
       <c r="D185">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A185-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A185)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.42433239567257558</v>
       </c>
       <c r="E185">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A185-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A185)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.45627139319631771</v>
       </c>
     </row>
@@ -6238,19 +6238,19 @@
         <v>17.899999999999999</v>
       </c>
       <c r="B186">
-        <f t="shared" si="4"/>
-        <v>-69.125763681306864</v>
+        <f t="shared" si="11"/>
+        <v>-68.793235379787973</v>
       </c>
       <c r="C186">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.667471698481108</v>
       </c>
       <c r="D186">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A186-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A186)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.42126413284176539</v>
       </c>
       <c r="E186">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A186-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A186)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.45297218585136068</v>
       </c>
     </row>
@@ -6259,19 +6259,19 @@
         <v>18</v>
       </c>
       <c r="B187">
-        <f t="shared" si="4"/>
-        <v>-69.132085109577133</v>
+        <f t="shared" si="11"/>
+        <v>-68.805259828718846</v>
       </c>
       <c r="C187">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.673174719141713</v>
       </c>
       <c r="D187">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A187-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A187)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.41821805600687478</v>
       </c>
       <c r="E187">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A187-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A187)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.4496968344159944</v>
       </c>
     </row>
@@ -6280,19 +6280,19 @@
         <v>18.100000000000001</v>
       </c>
       <c r="B188">
-        <f t="shared" si="4"/>
-        <v>-69.138360828861693</v>
+        <f t="shared" si="11"/>
+        <v>-68.817131762656189</v>
       </c>
       <c r="C188">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.678770933794496</v>
       </c>
       <c r="D188">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A188-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A188)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.41519400474539675</v>
       </c>
       <c r="E188">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A188-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A188)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.44644516639289961</v>
       </c>
     </row>
@@ -6301,19 +6301,19 @@
         <v>18.2</v>
       </c>
       <c r="B189">
-        <f t="shared" si="4"/>
-        <v>-69.144591169673134</v>
+        <f t="shared" si="11"/>
+        <v>-68.828853765683263</v>
       </c>
       <c r="C189">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.684262596010129</v>
       </c>
       <c r="D189">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A189-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A189)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.41219181979480779</v>
       </c>
       <c r="E189">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A189-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A189)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.44321701053205143</v>
       </c>
     </row>
@@ -6322,19 +6322,19 @@
         <v>18.3</v>
       </c>
       <c r="B190">
-        <f t="shared" si="4"/>
-        <v>-69.150776460134125</v>
+        <f t="shared" si="11"/>
+        <v>-68.84042836445937</v>
       </c>
       <c r="C190">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.689651904325245</v>
       </c>
       <c r="D190">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A190-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A190)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.40921134304417961</v>
       </c>
       <c r="E190">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A190-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A190)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.44001219682169862</v>
       </c>
     </row>
@@ -6343,19 +6343,19 @@
         <v>18.399999999999999</v>
       </c>
       <c r="B191">
-        <f t="shared" si="4"/>
-        <v>-69.156917025994744</v>
+        <f t="shared" si="11"/>
+        <v>-68.851858029804987</v>
       </c>
       <c r="C191">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.694941003810243</v>
       </c>
       <c r="D191">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A191-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A191)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.40625241752585278</v>
       </c>
       <c r="E191">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A191-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A191)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.4368305564794116</v>
       </c>
     </row>
@@ -6364,19 +6364,19 @@
         <v>18.5</v>
       </c>
       <c r="B192">
-        <f t="shared" si="4"/>
-        <v>-69.16301319064965</v>
+        <f t="shared" si="11"/>
+        <v>-68.863145178241609</v>
       </c>
       <c r="C192">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <f t="shared" si="12"/>
+        <v>-69.700131987591959</v>
       </c>
       <c r="D192">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A192-$M$3+D$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+D$1+$A192)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.40331488740716914</v>
       </c>
       <c r="E192">
-        <f>SQRT(3.1459/2)*$K$3*$L$3*$M$7^($A192-$M$3+E$1)*EXP(0.5*$K$3^2*LOG($M$7)^2)*(ERF(($K$3^2*LOG($M$7)-$M$3+E$1+$A192)/(SQRT(2)*$K$3))-ERF(($K$3^2*LOG($M$7)-$M$3)/(SQRT(2)*$K$3)))</f>
+        <f t="shared" si="15"/>
         <v>0.43367192194319248</v>
       </c>
     </row>
